--- a/mosip_master/xlsx/app_detail.xlsx
+++ b/mosip_master/xlsx/app_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\Desktop\NIRA MASTERDATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0B56E0-24A2-42AB-81DA-A3ECF72F9F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C9F94-533E-48AF-8F7A-F8181F7E1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A68F700C-8848-456A-8014-957AAB2D4B43}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A68F700C-8848-456A-8014-957AAB2D4B43}"/>
   </bookViews>
   <sheets>
     <sheet name="app_detail" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -101,45 +101,6 @@
   </si>
   <si>
     <t>Web portal for Post ID generation services</t>
-  </si>
-  <si>
-    <t>PrÃ©-inscription</t>
-  </si>
-  <si>
-    <t>Portail Web pour les prÃ©-inscriptions</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>Client dinscription</t>
-  </si>
-  <si>
-    <t>Application de bureau pour les inscriptions</t>
-  </si>
-  <si>
-    <t>Processeur dinscription</t>
-  </si>
-  <si>
-    <t>Demande de post-inscription</t>
-  </si>
-  <si>
-    <t>Authentification ID</t>
-  </si>
-  <si>
-    <t>Application pour lauthentification du fournisseur de services tiers</t>
-  </si>
-  <si>
-    <t>ContrÃ´le didentitÃ©</t>
-  </si>
-  <si>
-    <t>Portail Web pour la configuration dapplications</t>
-  </si>
-  <si>
-    <t>Portail RÃ©sident</t>
-  </si>
-  <si>
-    <t>Portail Web pour les services de gÃ©nÃ©ration de post-ID</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B32FD4-EAE7-47C6-88B4-9166E9C9FD03}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1199,160 +1162,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>10001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>45337.275756388888</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>10003</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1">
-        <v>45337.275756388888</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10005</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1">
-        <v>45337.275756388888</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10007</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
-        <v>45337.275756388888</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10009</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45337.275756388888</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>10011</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1">
-        <v>45337.275756388888</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
